--- a/PCUsers.xlsx
+++ b/PCUsers.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://insightonlinegbr-my.sharepoint.com/personal/francisco_gonzalezroy_insight_com/Documents/3. Office 365 - Azure/7.PowerShell/PartnerCenter/Users/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="75" documentId="8_{946EF2A8-7A91-4F70-9ABE-7C6B2D273689}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{67F8AB19-2163-437A-8E5A-93B88437D6CA}"/>
+  <xr:revisionPtr revIDLastSave="83" documentId="8_{946EF2A8-7A91-4F70-9ABE-7C6B2D273689}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{89794B41-C69A-403C-B5FA-04E20AFCC7D7}"/>
   <bookViews>
-    <workbookView xWindow="-26745" yWindow="2640" windowWidth="14925" windowHeight="11430" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PC_Users" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="70">
   <si>
     <t>FirstName</t>
   </si>
@@ -172,18 +172,6 @@
     <t>Fran</t>
   </si>
   <si>
-    <t>fgonzale</t>
-  </si>
-  <si>
-    <t>Francisco.GonzalezRoy</t>
-  </si>
-  <si>
-    <t>fgonzalezroy</t>
-  </si>
-  <si>
-    <t>fgroy</t>
-  </si>
-  <si>
     <t>CompanyAdmin</t>
   </si>
   <si>
@@ -193,9 +181,6 @@
     <t>BillingAdmin</t>
   </si>
   <si>
-    <t>Agent</t>
-  </si>
-  <si>
     <t>GBPinsightemeacsp.onmicrosoft.com</t>
   </si>
   <si>
@@ -241,10 +226,22 @@
     <t>Sales</t>
   </si>
   <si>
-    <t>fsales</t>
-  </si>
-  <si>
     <t>Singapore</t>
+  </si>
+  <si>
+    <t>AdmAgentGlobalAdm</t>
+  </si>
+  <si>
+    <t>AdmAgentAccAdm</t>
+  </si>
+  <si>
+    <t>AdmAgentBillAdm</t>
+  </si>
+  <si>
+    <t>HelpDeskAgent</t>
+  </si>
+  <si>
+    <t>SalesAgent</t>
   </si>
 </sst>
 </file>
@@ -1125,13 +1122,13 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9.6328125" customWidth="1"/>
-    <col min="2" max="2" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.1796875" customWidth="1"/>
     <col min="3" max="3" width="23.7265625" customWidth="1"/>
     <col min="4" max="4" width="22.6328125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.54296875" bestFit="1" customWidth="1"/>
@@ -1163,10 +1160,10 @@
         <v>45</v>
       </c>
       <c r="B2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C2" t="s">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="D2" t="s">
         <v>8</v>
@@ -1183,10 +1180,10 @@
         <v>45</v>
       </c>
       <c r="B3" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C3" t="s">
-        <v>47</v>
+        <v>66</v>
       </c>
       <c r="D3" t="s">
         <v>6</v>
@@ -1203,10 +1200,10 @@
         <v>45</v>
       </c>
       <c r="B4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C4" t="s">
-        <v>48</v>
+        <v>67</v>
       </c>
       <c r="D4" t="s">
         <v>9</v>
@@ -1223,10 +1220,10 @@
         <v>45</v>
       </c>
       <c r="B5" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="C5" t="s">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="E5" t="s">
         <v>10</v>
@@ -1240,7 +1237,7 @@
         <v>45</v>
       </c>
       <c r="B6" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C6" t="s">
         <v>69</v>
@@ -1312,7 +1309,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B2" t="s">
         <v>17</v>
@@ -1323,7 +1320,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B3" t="s">
         <v>18</v>
@@ -1334,7 +1331,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B4" t="s">
         <v>19</v>
@@ -1345,7 +1342,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B5" t="s">
         <v>20</v>
@@ -1356,7 +1353,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B6" t="s">
         <v>21</v>
@@ -1367,7 +1364,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B7" t="s">
         <v>22</v>
@@ -1378,7 +1375,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B8" t="s">
         <v>23</v>
@@ -1389,7 +1386,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -1400,7 +1397,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1411,7 +1408,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -1422,7 +1419,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B12" t="s">
         <v>27</v>
@@ -1433,7 +1430,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B13" t="s">
         <v>28</v>
@@ -1444,7 +1441,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B14" t="s">
         <v>29</v>
@@ -1455,10 +1452,10 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B15" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C15" t="s">
         <v>43</v>
@@ -1751,18 +1748,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1785,6 +1782,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5FD912F7-57C5-4BE8-B227-EC1D752B640B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{927B89BA-3627-4061-B20D-08F98928C879}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
@@ -1799,12 +1804,4 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5FD912F7-57C5-4BE8-B227-EC1D752B640B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>